--- a/Graphs/位相差.xlsx
+++ b/Graphs/位相差.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$2</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>極値番号</t>
     <rPh sb="0" eb="2">
@@ -44,13 +45,54 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>信号強度が対応する高次高調波の次数ごとの位相差の平均値[fs]</t>
+    <rPh sb="0" eb="4">
+      <t>シンゴウキョウド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>コウジコウチョウハ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジスウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>イソウサ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0～10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間差の範囲[fs]</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10～20</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -76,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -84,11 +126,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -96,7 +167,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -405,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -415,19 +517,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="1">
         <v>11</v>
       </c>
@@ -1117,4 +1219,567 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="12.375" customWidth="1"/>
+    <col min="16" max="16" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="12.25" customWidth="1"/>
+    <col min="18" max="18" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-0.29555555555548807</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-0.14777777777769785</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-0.14777777777769785</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-0.14777777777769785</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-0.14777777777769785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-0.24181818181810399</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.12090909090899515</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.14777777777780443</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.24181818181819636</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-0.12090909090910174</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-0.36272727272730521</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.22166666666669954</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-0.18999999999999773</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-0.44333333333329961</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-0.18999999999999773</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-0.18999999999999773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-0.19000000000000483</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.26600000000000534</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-0.26599999999999824</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7">
+        <v>11</v>
+      </c>
+      <c r="O8" s="7">
+        <v>12</v>
+      </c>
+      <c r="P8" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>14</v>
+      </c>
+      <c r="R8" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.22166666666660007</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="10">
+        <v>-1.0555555555528022E-2</v>
+      </c>
+      <c r="O9" s="10">
+        <v>4.8555555555542994E-2</v>
+      </c>
+      <c r="P9" s="11">
+        <v>-0.18029437229435732</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>-2.1111111111099694E-2</v>
+      </c>
+      <c r="R9" s="10">
+        <v>-2.1111111111099694E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.22166666666669954</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-0.22166666666669954</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="12">
+        <v>5.2645833333337944E-2</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0.17456249999999995</v>
+      </c>
+      <c r="P10" s="13">
+        <v>-0.15781250000001323</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>0.141437499999987</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0.141437499999987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-0.26599999999999824</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.26599999999999824</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.26599999999999824</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.26599999999999824</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-0.26599999999999824</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.26599999999999824</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.26599999999999824</v>
+      </c>
+      <c r="G12" s="5">
+        <f>AVERAGE(B3:B9)</f>
+        <v>-1.0555555555528022E-2</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" ref="H12:K12" si="0">AVERAGE(C3:C9)</f>
+        <v>4.8555555555542994E-2</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.18029437229435732</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.1111111111099694E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.1111111111099694E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.26599999999999824</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.26599999999999824</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.26599999999999824</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.26599999999999824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>-0.33249999999999957</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.33249999999999957</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-0.33150000000010849</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.33349999999989421</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.33349999999989421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.26600000000000534</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-0.44333333333329961</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.26600000000000534</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.26600000000000534</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.26600000000000534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.44333333333329961</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.44333333333329961</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.44333333333329961</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.44333333333329961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-0.44333333333329961</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.33250000000000313</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.33250000000000313</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.33250000000000313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <f>AVERAGE(B10:B17)</f>
+        <v>5.2645833333337944E-2</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" ref="H22:K22" si="1">AVERAGE(C10:C17)</f>
+        <v>0.17456249999999995</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.15781250000001323</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="1"/>
+        <v>0.141437499999987</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="1"/>
+        <v>0.141437499999987</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="M7:M8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>